--- a/1_TCS_FPM_TVAC/1_TCS_FPM_TVAC.xlsx
+++ b/1_TCS_FPM_TVAC/1_TCS_FPM_TVAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69390bb4cacf394b/Pulpit/ESATAN_PARSER/1_TCS_FPM_TVAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0F18F89A-0941-43E8-92F1-5A1D70AA5DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58CF897C-46DE-4EC3-8EAD-503AA85B6F26}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{0F18F89A-0941-43E8-92F1-5A1D70AA5DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02EEC08-0CE5-4C69-9ED3-E6F7635417F2}"/>
   <bookViews>
-    <workbookView xWindow="11484" yWindow="3276" windowWidth="10536" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HIERARCHY" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="263">
   <si>
     <t>PID</t>
   </si>
@@ -2187,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -6119,8 +6119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6177,18 +6177,10 @@
       <c r="U1" s="35"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2">
-        <v>999999</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>72</v>
-      </c>
+      <c r="A2" s="21"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
